--- a/WebRoot/download/配送单更新模板.xlsx
+++ b/WebRoot/download/配送单更新模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>城市</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>配送单的送货时间 格式的为 ****-**-**</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>81000A15408010</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -131,7 +143,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,12 +153,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -192,24 +198,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -218,6 +218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="?鹎%U龡&amp;H?_x0008_e_x0005_9_x0006__x0007__x0001__x0001_" xfId="2"/>
@@ -668,7 +669,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -689,7 +690,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -701,11 +702,33 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>111</v>
+      </c>
+      <c r="B2">
+        <v>111</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="7">
+        <v>42289</v>
+      </c>
+    </row>
     <row r="3" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -720,7 +743,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -740,10 +763,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -752,30 +775,30 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>13</v>
       </c>
     </row>

--- a/WebRoot/download/配送单更新模板.xlsx
+++ b/WebRoot/download/配送单更新模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>城市</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -45,10 +45,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>配送单的目的城市</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>收货人信息的收货单位</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -69,11 +65,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>配送单的送货时间 格式的为 ****-**-**</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>81000A15408010</t>
+    <t>配送单的目的城市 格式为**市</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州市</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送单的送货时间 格式的为 ****/**/**</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>81000A15329041</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -81,8 +85,38 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>aaa</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>bbb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>81000A15329033</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>81000A15329025</t>
+  </si>
+  <si>
+    <t>81000A15329017</t>
   </si>
 </sst>
 </file>
@@ -250,8 +284,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -318,8 +352,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -666,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -706,30 +740,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>111</v>
-      </c>
-      <c r="B2">
-        <v>111</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="7">
-        <v>42289</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -740,10 +750,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A10" sqref="A10:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -781,28 +791,119 @@
     </row>
     <row r="2" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
+      <c r="B8">
+        <v>1111</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="7">
+        <v>42289</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7">
+        <v>42289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>1112</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="7">
+        <v>42289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="7">
+        <v>42289</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WebRoot/download/配送单更新模板.xlsx
+++ b/WebRoot/download/配送单更新模板.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>城市</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -117,13 +117,73 @@
   </si>
   <si>
     <t>81000A15329017</t>
+  </si>
+  <si>
+    <t>配送发车时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商名称(简称)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州市</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗暗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>唉唉唉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>淇辉物流</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>杭州专线</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送单的发车时间 格式的为 ****/**/**</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商简称必须与系统中维护的名称一样。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +232,19 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -232,7 +305,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -253,6 +326,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="?鹎%U龡&amp;H?_x0008_e_x0005_9_x0006__x0007__x0001__x0001_" xfId="2"/>
@@ -284,8 +361,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -352,8 +429,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -700,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -711,13 +788,15 @@
     <col min="1" max="1" width="18.375" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="21.625" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
     <col min="5" max="5" width="21.25" customWidth="1"/>
     <col min="6" max="6" width="18.75" customWidth="1"/>
     <col min="7" max="7" width="24.375" customWidth="1"/>
+    <col min="8" max="8" width="20.625" customWidth="1"/>
+    <col min="9" max="9" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -738,6 +817,41 @@
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2">
+        <v>235550</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>12313</v>
+      </c>
+      <c r="G2" s="7">
+        <v>42289</v>
+      </c>
+      <c r="H2" s="7">
+        <v>42289</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -750,10 +864,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:G11"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -764,9 +878,11 @@
     <col min="5" max="5" width="21.75" customWidth="1"/>
     <col min="6" max="6" width="20.25" customWidth="1"/>
     <col min="7" max="7" width="22.5" customWidth="1"/>
+    <col min="8" max="8" width="17.75" customWidth="1"/>
+    <col min="9" max="9" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -788,8 +904,14 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -811,8 +933,14 @@
       <c r="G2" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="H2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -834,8 +962,11 @@
       <c r="G8" s="7">
         <v>42289</v>
       </c>
+      <c r="H8" s="7">
+        <v>42289</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -858,7 +989,7 @@
         <v>42289</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -881,7 +1012,7 @@
         <v>42289</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>13</v>
       </c>

--- a/WebRoot/download/配送单更新模板.xlsx
+++ b/WebRoot/download/配送单更新模板.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="34">
   <si>
     <t>城市</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -361,8 +361,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -429,8 +429,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -777,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -825,35 +825,6 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2">
-        <v>235550</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2">
-        <v>12313</v>
-      </c>
-      <c r="G2" s="7">
-        <v>42289</v>
-      </c>
-      <c r="H2" s="7">
-        <v>42289</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -864,10 +835,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A12" sqref="A12:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -940,7 +911,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -965,8 +936,11 @@
       <c r="H8" s="7">
         <v>42289</v>
       </c>
+      <c r="I8" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -988,8 +962,11 @@
       <c r="G9" s="7">
         <v>42289</v>
       </c>
+      <c r="I9" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1011,8 +988,11 @@
       <c r="G10" s="7">
         <v>42289</v>
       </c>
+      <c r="I10" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1033,6 +1013,125 @@
       </c>
       <c r="G11" s="7">
         <v>42289</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12">
+        <v>224443</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12">
+        <v>12313</v>
+      </c>
+      <c r="G12" s="7">
+        <v>42289</v>
+      </c>
+      <c r="H12" s="7">
+        <v>42289</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>221880</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13">
+        <v>12313</v>
+      </c>
+      <c r="G13" s="7">
+        <v>42289</v>
+      </c>
+      <c r="H13" s="7">
+        <v>42289</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14">
+        <v>235419</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14">
+        <v>12313</v>
+      </c>
+      <c r="G14" s="7">
+        <v>42289</v>
+      </c>
+      <c r="H14" s="7">
+        <v>42289</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <v>235415</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15">
+        <v>12313</v>
+      </c>
+      <c r="G15" s="7">
+        <v>42289</v>
+      </c>
+      <c r="H15" s="7">
+        <v>42289</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/WebRoot/download/配送单更新模板.xlsx
+++ b/WebRoot/download/配送单更新模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="9030"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="9030" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="38">
   <si>
     <t>城市</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -176,6 +176,21 @@
   </si>
   <si>
     <t>供应商简称必须与系统中维护的名称一样。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中转仓</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>海口中转仓</t>
+  </si>
+  <si>
+    <t>海口中转仓</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>海口中转仓</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -305,7 +320,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -329,6 +344,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -362,7 +380,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -430,7 +448,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -777,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -788,15 +806,16 @@
     <col min="1" max="1" width="18.375" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="21.625" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="34.125" customWidth="1"/>
     <col min="5" max="5" width="21.25" customWidth="1"/>
     <col min="6" max="6" width="18.75" customWidth="1"/>
     <col min="7" max="7" width="24.375" customWidth="1"/>
     <col min="8" max="8" width="20.625" customWidth="1"/>
     <col min="9" max="9" width="16.75" customWidth="1"/>
+    <col min="10" max="10" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -823,6 +842,41 @@
       </c>
       <c r="I1" s="3" t="s">
         <v>27</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2">
+        <v>178684</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>12313</v>
+      </c>
+      <c r="G2" s="7">
+        <v>42289</v>
+      </c>
+      <c r="H2" s="7">
+        <v>42289</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -835,10 +889,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -853,7 +907,7 @@
     <col min="9" max="9" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -881,8 +935,11 @@
       <c r="I1" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="J1" s="10" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -911,7 +968,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -939,8 +996,11 @@
       <c r="I8" s="8" t="s">
         <v>31</v>
       </c>
+      <c r="J8" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -965,8 +1025,11 @@
       <c r="I9" s="8" t="s">
         <v>31</v>
       </c>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -991,8 +1054,11 @@
       <c r="I10" s="8" t="s">
         <v>31</v>
       </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1017,8 +1083,11 @@
       <c r="I11" s="8" t="s">
         <v>31</v>
       </c>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="12" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1046,8 +1115,11 @@
       <c r="I12" s="8" t="s">
         <v>31</v>
       </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1075,8 +1147,11 @@
       <c r="I13" s="8" t="s">
         <v>31</v>
       </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1104,8 +1179,11 @@
       <c r="I14" s="8" t="s">
         <v>31</v>
       </c>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="15" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1132,6 +1210,9 @@
       </c>
       <c r="I15" s="8" t="s">
         <v>31</v>
+      </c>
+      <c r="J15" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/WebRoot/download/配送单更新模板.xlsx
+++ b/WebRoot/download/配送单更新模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="9030" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="37">
   <si>
     <t>城市</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -184,10 +184,6 @@
   </si>
   <si>
     <t>海口中转仓</t>
-  </si>
-  <si>
-    <t>海口中转仓</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>海口中转仓</t>
@@ -380,7 +376,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>98425</xdr:rowOff>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -448,7 +444,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>98425</xdr:rowOff>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -795,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -847,38 +843,6 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2">
-        <v>178684</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2">
-        <v>12313</v>
-      </c>
-      <c r="G2" s="7">
-        <v>42289</v>
-      </c>
-      <c r="H2" s="7">
-        <v>42289</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" t="s">
-        <v>37</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -891,7 +855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>

--- a/WebRoot/download/配送单更新模板.xlsx
+++ b/WebRoot/download/配送单更新模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="9030"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="9030" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -179,14 +179,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>中转仓</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>海口中转仓</t>
-  </si>
-  <si>
-    <t>海口中转仓</t>
+    <t>省份</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统不做处理</t>
+  </si>
+  <si>
+    <t>系统不做处理</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -367,13 +367,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
@@ -435,13 +435,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
@@ -793,54 +793,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.375" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="21.625" customWidth="1"/>
-    <col min="4" max="4" width="34.125" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
-    <col min="6" max="6" width="18.75" customWidth="1"/>
-    <col min="7" max="7" width="24.375" customWidth="1"/>
-    <col min="8" max="8" width="20.625" customWidth="1"/>
-    <col min="9" max="9" width="16.75" customWidth="1"/>
-    <col min="10" max="10" width="19.25" customWidth="1"/>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="21.625" customWidth="1"/>
+    <col min="5" max="5" width="34.125" customWidth="1"/>
+    <col min="6" max="6" width="21.25" customWidth="1"/>
+    <col min="7" max="7" width="18.75" customWidth="1"/>
+    <col min="8" max="8" width="24.375" customWidth="1"/>
+    <col min="9" max="9" width="20.625" customWidth="1"/>
+    <col min="10" max="10" width="16.75" customWidth="1"/>
+    <col min="11" max="11" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -855,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A32:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -869,314 +870,315 @@
     <col min="7" max="7" width="22.5" customWidth="1"/>
     <col min="8" max="8" width="17.75" customWidth="1"/>
     <col min="9" max="9" width="19.25" customWidth="1"/>
+    <col min="10" max="10" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>1111</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>21</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="7">
-        <v>42289</v>
-      </c>
       <c r="H8" s="7">
         <v>42289</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="7">
+        <v>42289</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="J8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>17</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>18</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="7">
-        <v>42289</v>
-      </c>
-      <c r="I9" s="8" t="s">
+      <c r="H9" s="7">
+        <v>42289</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="J9" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>1112</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>21</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="7">
-        <v>42289</v>
-      </c>
-      <c r="I10" s="8" t="s">
+      <c r="H10" s="7">
+        <v>42289</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="J10" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>17</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>18</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="7">
-        <v>42289</v>
-      </c>
-      <c r="I11" s="8" t="s">
+      <c r="H11" s="7">
+        <v>42289</v>
+      </c>
+      <c r="J11" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="J11" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>29</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>224443</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>29</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>30</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>12313</v>
       </c>
-      <c r="G12" s="7">
-        <v>42289</v>
-      </c>
       <c r="H12" s="7">
         <v>42289</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="7">
+        <v>42289</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="J12" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>29</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>221880</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>29</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>30</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>12313</v>
       </c>
-      <c r="G13" s="7">
-        <v>42289</v>
-      </c>
       <c r="H13" s="7">
         <v>42289</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="7">
+        <v>42289</v>
+      </c>
+      <c r="J13" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="J13" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>29</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>235419</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>29</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>30</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>12313</v>
       </c>
-      <c r="G14" s="7">
-        <v>42289</v>
-      </c>
       <c r="H14" s="7">
         <v>42289</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="7">
+        <v>42289</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="J14" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>29</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>235415</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>29</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>30</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>12313</v>
       </c>
-      <c r="G15" s="7">
-        <v>42289</v>
-      </c>
       <c r="H15" s="7">
         <v>42289</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="7">
+        <v>42289</v>
+      </c>
+      <c r="J15" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="J15" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/WebRoot/download/配送单更新模板.xlsx
+++ b/WebRoot/download/配送单更新模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="9030" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -793,7 +793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -856,7 +856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A33" sqref="A32:A33"/>
     </sheetView>
   </sheetViews>

--- a/WebRoot/download/配送单更新模板.xlsx
+++ b/WebRoot/download/配送单更新模板.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="38">
   <si>
     <t>城市</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -188,6 +188,10 @@
   <si>
     <t>系统不做处理</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称(简称)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -791,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -812,7 +816,7 @@
     <col min="11" max="11" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>34</v>
       </c>
@@ -842,6 +846,9 @@
       </c>
       <c r="J1" s="3" t="s">
         <v>27</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/WebRoot/download/配送单更新模板.xlsx
+++ b/WebRoot/download/配送单更新模板.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="39">
   <si>
     <t>城市</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -190,7 +190,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>客户名称(简称)</t>
+    <t>供应商名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -798,7 +802,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -845,10 +849,10 @@
         <v>26</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/WebRoot/download/配送单更新模板.xlsx
+++ b/WebRoot/download/配送单更新模板.xlsx
@@ -1,142 +1,104 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="9030"/>
+    <workbookView windowWidth="23640" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="更新格式说明" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+  <si>
+    <t>省份</t>
+  </si>
   <si>
     <t>城市</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>收货单位</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>序列号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>配送地址</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>联系人</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>联系电话</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>预约送货时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送发车时间</t>
+  </si>
+  <si>
+    <t>供应商名称</t>
+  </si>
+  <si>
+    <t>客户名称</t>
+  </si>
+  <si>
+    <t>签收单据号</t>
+  </si>
+  <si>
+    <t>供应商名称(简称)</t>
+  </si>
+  <si>
+    <t>配送单的目的城市 格式为**市</t>
   </si>
   <si>
     <t>收货人信息的收货单位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>通过序列号查询到配送单然后更新数据 ，此列为必填</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>收货人信息的收货地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>收货人信息的联系人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>收货人信息的联系电话</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>配送单的目的城市 格式为**市</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送单的送货时间 格式的为 ****/**/**</t>
+  </si>
+  <si>
+    <t>配送单的发车时间 格式的为 ****/**/**</t>
+  </si>
+  <si>
+    <t>供应商简称必须与系统中维护的名称一样。</t>
+  </si>
+  <si>
+    <t>系统不做处理</t>
   </si>
   <si>
     <t>杭州市</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>配送单的送货时间 格式的为 ****/**/**</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>81000A15329041</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>aaa</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbb</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ddd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AAA</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>BBB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CCC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>81000A15329033</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>81000A15329025</t>
-  </si>
-  <si>
-    <t>81000A15329017</t>
-  </si>
-  <si>
-    <t>配送发车时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商名称(简称)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>杭州市</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗暗</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>唉唉唉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -144,7 +106,6 @@
         <sz val="8"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>淇辉物流</t>
@@ -154,7 +115,7 @@
         <sz val="8"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -163,113 +124,246 @@
         <sz val="8"/>
         <color rgb="FF333333"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>杭州专线</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>配送单的发车时间 格式的为 ****/**/**</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商简称必须与系统中维护的名称一样。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>省份</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统不做处理</t>
-  </si>
-  <si>
-    <t>系统不做处理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>81000A15329033</t>
+  </si>
+  <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>ccc</t>
+  </si>
+  <si>
+    <t>ddd</t>
+  </si>
+  <si>
+    <t>81000A15329025</t>
+  </si>
+  <si>
+    <t>81000A15329017</t>
+  </si>
+  <si>
+    <t>暗暗</t>
+  </si>
+  <si>
+    <t>唉唉唉</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <b/>
+      <sz val="10"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF333333"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,24 +372,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -305,37 +585,282 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -345,34 +870,70 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="?鹎%U龡&amp;H?_x0008_e_x0005_9_x0006__x0007__x0001__x0001_" xfId="2"/>
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="?鹎%U龡&amp;H?_x0008_e_x0005_9_x0006__x0007__x0001__x0001_" xfId="12"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="注释" xfId="14" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
+    <cellStyle name="标题" xfId="18" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="计算" xfId="26" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
+    <cellStyle name="汇总" xfId="31" builtinId="25"/>
+    <cellStyle name="好" xfId="32" builtinId="26"/>
+    <cellStyle name="适中" xfId="33" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -394,7 +955,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -406,10 +967,10 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="2876550" y="371475"/>
-          <a:ext cx="819150" cy="1365250"/>
+          <a:off x="5991225" y="514350"/>
+          <a:ext cx="819150" cy="2165350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -462,7 +1023,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -474,10 +1035,10 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="2876550" y="371475"/>
-          <a:ext cx="819150" cy="1365250"/>
+          <a:off x="5991225" y="514350"/>
+          <a:ext cx="819150" cy="2165350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -555,7 +1116,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -590,7 +1151,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -798,14 +1359,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18.125" customWidth="1"/>
     <col min="2" max="2" width="18.375" customWidth="1"/>
@@ -817,61 +1379,65 @@
     <col min="8" max="8" width="24.375" customWidth="1"/>
     <col min="9" max="9" width="20.625" customWidth="1"/>
     <col min="10" max="10" width="16.75" customWidth="1"/>
-    <col min="11" max="11" width="19.25" customWidth="1"/>
+    <col min="11" max="12" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" ht="40.5" customHeight="1" spans="1:12">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>38</v>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A33" sqref="A32:A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="30.625" customWidth="1"/>
     <col min="2" max="3" width="21.375" customWidth="1"/>
@@ -884,317 +1450,317 @@
     <col min="10" max="10" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" ht="58.5" customHeight="1" spans="1:10">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>27</v>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="6" t="s">
+    <row r="2" ht="51" customHeight="1" spans="2:10">
+      <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>32</v>
+      <c r="D2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" ht="33" customHeight="1" spans="1:10">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>1111</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="8">
+        <v>42289</v>
+      </c>
+      <c r="I8" s="8">
+        <v>42289</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" ht="30" customHeight="1" spans="1:10">
+      <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="7">
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="8">
         <v>42289</v>
       </c>
-      <c r="I8" s="7">
-        <v>42289</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>31</v>
+      <c r="J9" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
+    <row r="10" ht="33" customHeight="1" spans="1:10">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>42289</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
       </c>
       <c r="C10">
         <v>1112</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="8">
+        <v>42289</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" ht="30" customHeight="1" spans="1:10">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="7">
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="8">
         <v>42289</v>
       </c>
-      <c r="J10" s="8" t="s">
-        <v>31</v>
+      <c r="J11" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="7">
-        <v>42289</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D12">
         <v>224443</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G12">
         <v>12313</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="8">
         <v>42289</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="8">
         <v>42289</v>
       </c>
-      <c r="J12" s="8" t="s">
-        <v>31</v>
+      <c r="J12" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D13">
         <v>221880</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G13">
         <v>12313</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="8">
         <v>42289</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="8">
         <v>42289</v>
       </c>
-      <c r="J13" s="8" t="s">
-        <v>31</v>
+      <c r="J13" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D14">
         <v>235419</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G14">
         <v>12313</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="8">
         <v>42289</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="8">
         <v>42289</v>
       </c>
-      <c r="J14" s="8" t="s">
-        <v>31</v>
+      <c r="J14" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D15">
         <v>235415</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G15">
         <v>12313</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="8">
         <v>42289</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="8">
         <v>42289</v>
       </c>
-      <c r="J15" s="8" t="s">
-        <v>31</v>
+      <c r="J15" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/WebRoot/download/配送单更新模板.xlsx
+++ b/WebRoot/download/配送单更新模板.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23640" windowHeight="7860"/>
+    <workbookView windowWidth="28080" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="更新格式说明" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -29,6 +29,9 @@
     <t>序列号</t>
   </si>
   <si>
+    <t>签收单据号</t>
+  </si>
+  <si>
     <t>配送地址</t>
   </si>
   <si>
@@ -48,9 +51,6 @@
   </si>
   <si>
     <t>客户名称</t>
-  </si>
-  <si>
-    <t>签收单据号</t>
   </si>
   <si>
     <t>供应商名称(简称)</t>
@@ -163,11 +163,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,16 +196,90 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -217,16 +291,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,14 +308,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,85 +330,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -345,13 +345,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -390,55 +383,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,127 +563,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,36 +588,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,8 +619,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,6 +655,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -687,164 +689,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -936,13 +929,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
@@ -969,7 +962,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5991225" y="514350"/>
+          <a:off x="7458075" y="514350"/>
           <a:ext cx="819150" cy="2165350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1004,13 +997,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
@@ -1037,7 +1030,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5991225" y="514350"/>
+          <a:off x="7458075" y="514350"/>
           <a:ext cx="819150" cy="2165350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1363,8 +1356,8 @@
   <sheetPr/>
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1373,13 +1366,14 @@
     <col min="2" max="2" width="18.375" customWidth="1"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
     <col min="4" max="4" width="21.625" customWidth="1"/>
-    <col min="5" max="5" width="34.125" customWidth="1"/>
-    <col min="6" max="6" width="21.25" customWidth="1"/>
-    <col min="7" max="7" width="18.75" customWidth="1"/>
-    <col min="8" max="8" width="24.375" customWidth="1"/>
-    <col min="9" max="9" width="20.625" customWidth="1"/>
-    <col min="10" max="10" width="16.75" customWidth="1"/>
-    <col min="11" max="12" width="19.25" customWidth="1"/>
+    <col min="5" max="5" width="19.25" customWidth="1"/>
+    <col min="6" max="6" width="34.125" customWidth="1"/>
+    <col min="7" max="7" width="21.25" customWidth="1"/>
+    <col min="8" max="8" width="18.75" customWidth="1"/>
+    <col min="9" max="9" width="24.375" customWidth="1"/>
+    <col min="10" max="10" width="20.625" customWidth="1"/>
+    <col min="11" max="11" width="16.75" customWidth="1"/>
+    <col min="12" max="12" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="40.5" customHeight="1" spans="1:12">
@@ -1398,19 +1392,19 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
@@ -1464,19 +1458,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>12</v>

--- a/WebRoot/download/配送单更新模板.xlsx
+++ b/WebRoot/download/配送单更新模板.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="更新格式说明" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="39">
   <si>
     <t>省份</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>配送发车时间</t>
-  </si>
-  <si>
-    <t>供应商名称</t>
   </si>
   <si>
     <t>客户名称</t>
@@ -115,7 +112,7 @@
         <sz val="8"/>
         <color rgb="FF333333"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -156,18 +153,20 @@
   <si>
     <t>唉唉唉</t>
   </si>
+  <si>
+    <t>供应商名称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>司机</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,81 +191,7 @@
       <sz val="8"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -275,79 +200,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -355,8 +210,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,194 +242,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -591,269 +266,27 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -868,65 +301,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
+    <cellStyle name="?鹎%U龡&amp;H?_x0008_e_x0005_9_x0006__x0007__x0001__x0001_" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="?鹎%U龡&amp;H?_x0008_e_x0005_9_x0006__x0007__x0001__x0001_" xfId="12"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
-    <cellStyle name="标题" xfId="18" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="计算" xfId="26" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
-    <cellStyle name="汇总" xfId="31" builtinId="25"/>
-    <cellStyle name="好" xfId="32" builtinId="26"/>
-    <cellStyle name="适中" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="50"/>
+    <cellStyle name="常规 2" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -948,10 +334,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -974,14 +360,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1016,10 +402,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1042,14 +428,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1352,12 +738,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:L1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1372,11 +757,11 @@
     <col min="8" max="8" width="18.75" customWidth="1"/>
     <col min="9" max="9" width="24.375" customWidth="1"/>
     <col min="10" max="10" width="20.625" customWidth="1"/>
-    <col min="11" max="11" width="16.75" customWidth="1"/>
-    <col min="12" max="12" width="19.25" customWidth="1"/>
+    <col min="11" max="12" width="16.75" customWidth="1"/>
+    <col min="13" max="13" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" customHeight="1" spans="1:12">
+    <row r="1" spans="1:13" ht="40.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1408,23 +793,25 @@
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1444,7 +831,7 @@
     <col min="10" max="10" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="58.5" customHeight="1" spans="1:10">
+    <row r="1" spans="1:10" ht="58.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1473,175 +860,175 @@
         <v>9</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="51" customHeight="1">
+      <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="C2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" ht="51" customHeight="1" spans="2:10">
-      <c r="B2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="9" t="s">
+    <row r="8" spans="1:10" ht="33" customHeight="1">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" ht="33" customHeight="1" spans="1:10">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
       </c>
       <c r="C8">
         <v>1111</v>
       </c>
       <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>25</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>26</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" s="8">
+        <v>42289</v>
+      </c>
+      <c r="I8" s="8">
+        <v>42289</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="8">
-        <v>42289</v>
-      </c>
-      <c r="I8" s="8">
-        <v>42289</v>
-      </c>
-      <c r="J8" s="10" t="s">
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>28</v>
       </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="8">
+        <v>42289</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="9" ht="30" customHeight="1" spans="1:10">
-      <c r="A9" t="s">
+    <row r="10" spans="1:10" ht="33" customHeight="1">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
         <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="8">
-        <v>42289</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" ht="33" customHeight="1" spans="1:10">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
       </c>
       <c r="C10">
         <v>1112</v>
       </c>
       <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="8">
+        <v>42289</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" customHeight="1">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
         <v>34</v>
       </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="8">
+        <v>42289</v>
+      </c>
+      <c r="J11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="8">
-        <v>42289</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="11" ht="30" customHeight="1" spans="1:10">
-      <c r="A11" t="s">
+    <row r="12" spans="1:10" ht="14.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
         <v>35</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="8">
-        <v>42289</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
       </c>
       <c r="D12">
         <v>224443</v>
       </c>
       <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
         <v>36</v>
-      </c>
-      <c r="F12" t="s">
-        <v>37</v>
       </c>
       <c r="G12">
         <v>12313</v>
@@ -1653,27 +1040,27 @@
         <v>42289</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" ht="14.25">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13">
         <v>221880</v>
       </c>
       <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
         <v>36</v>
-      </c>
-      <c r="F13" t="s">
-        <v>37</v>
       </c>
       <c r="G13">
         <v>12313</v>
@@ -1685,27 +1072,27 @@
         <v>42289</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" ht="14.25">
       <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14">
         <v>235419</v>
       </c>
       <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
         <v>36</v>
-      </c>
-      <c r="F14" t="s">
-        <v>37</v>
       </c>
       <c r="G14">
         <v>12313</v>
@@ -1717,27 +1104,27 @@
         <v>42289</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" ht="14.25">
       <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15">
         <v>235415</v>
       </c>
       <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
         <v>36</v>
-      </c>
-      <c r="F15" t="s">
-        <v>37</v>
       </c>
       <c r="G15">
         <v>12313</v>
@@ -1749,12 +1136,12 @@
         <v>42289</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>